--- a/survey.xlsx
+++ b/survey.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="315">
   <si>
     <t>Timestamp</t>
   </si>
@@ -680,6 +680,283 @@
   </si>
   <si>
     <t>Yes, Cause it can help them to save time ordering for some food and will not be bothered by going in a branch to order there by themselves</t>
+  </si>
+  <si>
+    <t>Shelwyn Dave A. Losa</t>
+  </si>
+  <si>
+    <t>Pandac deca homes pavia</t>
+  </si>
+  <si>
+    <t>St therese</t>
+  </si>
+  <si>
+    <t>Yes bcuz it make effortless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esther Shayne Postolero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavia Iloilo </t>
+  </si>
+  <si>
+    <t>Yes, it's efficient to us</t>
+  </si>
+  <si>
+    <t>Rhealen Mae, R, Cordero</t>
+  </si>
+  <si>
+    <t>Brgy. Ferraris, Sara, Iloilo</t>
+  </si>
+  <si>
+    <t>Food Panda, McDelivery, JollibeeDelivery</t>
+  </si>
+  <si>
+    <t>None so far. My experiences with various food delivery apps have been great so far!</t>
+  </si>
+  <si>
+    <t>Yes, I would highly recommend delivery apps and services to my loved ones. I think it is an efficient and convenient way to be able to enjoy hearty meals from various favorite restaurants—despite the distance— while being able to make room for other chores and responsibilities while at the mere comfort of our own homes, schools, workplace, etc. 
+Also, I would highly recommend the delivery apps and services to my fellow introverts! I always prefer to remain indoors as I always find it more comfortable than being surrounded by people. Also, ordering food face to face can often times makes me anxious, and as well going to various restaurants or food hubs can be a hassle and can waste a lot of time and effort. My experiences with delivery apps so far have been satisfactory, plus the riders I've met have all been active and friendly! So, kudos to them as well!</t>
+  </si>
+  <si>
+    <t>Argee P. Cordero</t>
+  </si>
+  <si>
+    <t>Brgy.poblacion sandionisio iloilo</t>
+  </si>
+  <si>
+    <t>Nicomedes R. Tubar Sr. National high school</t>
+  </si>
+  <si>
+    <t>Yes because it is very efficient</t>
+  </si>
+  <si>
+    <t>Aeron Jesse A. Edombingo</t>
+  </si>
+  <si>
+    <t>New Lucena, Iloilo</t>
+  </si>
+  <si>
+    <t>Yes, because it is convenient</t>
+  </si>
+  <si>
+    <t>Leeboy Que C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungka 2 pavia iloilo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iloilo science and technology university </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfying </t>
+  </si>
+  <si>
+    <t>because i know to myself that this is helpful, and i know it is good.</t>
+  </si>
+  <si>
+    <t>Rouel E. Miravalles</t>
+  </si>
+  <si>
+    <t>Brgy anilao pavia iloilo</t>
+  </si>
+  <si>
+    <t>Isatu</t>
+  </si>
+  <si>
+    <t>Yes,because its useful</t>
+  </si>
+  <si>
+    <t>jermalyn.guanco@students.isatu.edu.ph</t>
+  </si>
+  <si>
+    <t>Brgy. Bito-on Jaro, Iloilo City</t>
+  </si>
+  <si>
+    <t>Iloilo Science And Technology University</t>
+  </si>
+  <si>
+    <t>Food Panda, Grab, McDelivery, JollibeeDelivery</t>
+  </si>
+  <si>
+    <t>J.B.T.</t>
+  </si>
+  <si>
+    <t>John Cris A. Villahermosa</t>
+  </si>
+  <si>
+    <t>Brgy. Cabugao sur Sta. Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Iloilo </t>
+  </si>
+  <si>
+    <t>Sure why not</t>
+  </si>
+  <si>
+    <t>Jarby Joy P. Sibaya</t>
+  </si>
+  <si>
+    <t>Jaro, Iloilo City</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Althea Marie P. Padilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, sometimes it didn’t arrive on time. </t>
+  </si>
+  <si>
+    <t>Yes because it is convenient.</t>
+  </si>
+  <si>
+    <t>Arnold B. Java</t>
+  </si>
+  <si>
+    <t>Ungka II Pavia Iloilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Because the delivery is effecient and it has a good performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faith Legaspi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lapaz iloilo City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISAT </t>
+  </si>
+  <si>
+    <t>Ken Oliver Escoliada</t>
+  </si>
+  <si>
+    <t>Poblacion Barotac Viejo, Iloilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Philippine University </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>John D. Finch</t>
+  </si>
+  <si>
+    <t>Ui</t>
+  </si>
+  <si>
+    <t>Preparation Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes Because is Convenient and Easy </t>
+  </si>
+  <si>
+    <t>Gian Kharla V Aguadera</t>
+  </si>
+  <si>
+    <t>Gran Plains</t>
+  </si>
+  <si>
+    <t>Yss bc its convenient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessa May Sayco Diola </t>
+  </si>
+  <si>
+    <t>PROGRESO, Ajuy, Iloilo</t>
+  </si>
+  <si>
+    <t>Yes, because it's very convenient</t>
+  </si>
+  <si>
+    <t>DEMAMDACO, MICHAEL VILMAR GABRIEL B.</t>
+  </si>
+  <si>
+    <t>Taft St. Brgy zone 6 Poblacion, Santa Barbara, iloilo</t>
+  </si>
+  <si>
+    <t>University of Iloilo - PHINMA</t>
+  </si>
+  <si>
+    <t>Wala na ako masabi basta masarap</t>
+  </si>
+  <si>
+    <t>Because the delivery food for customers is a fresh and delicious for all want to pic any order to online food app delivery</t>
+  </si>
+  <si>
+    <t>Andrie D. Cordova</t>
+  </si>
+  <si>
+    <t>Tabuc Suba Jaro</t>
+  </si>
+  <si>
+    <t>Iloilo National High School</t>
+  </si>
+  <si>
+    <t>Yes because now a day most people need a faster and cheaper food delivery</t>
+  </si>
+  <si>
+    <t>Rhean Jane S. Amarador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangorocoro, Ajuy, Iloilo </t>
+  </si>
+  <si>
+    <t>Yes, because I know it's convenient to use the delivery app.</t>
+  </si>
+  <si>
+    <t>Melvin L. Silvederio</t>
+  </si>
+  <si>
+    <t>Sitio Bubog, Botong Badiangan, Iloilo</t>
+  </si>
+  <si>
+    <t>Food Panda, Grab, Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For recommendation in using this app is subjective, if you recommend, make it sure to guide them until they were able to nagivate well the app and teach them the pros and cons. If you recommend, make it sure to the people who is tech savvy. </t>
+  </si>
+  <si>
+    <t>Bito-on, Jaro, Iloilo City</t>
+  </si>
+  <si>
+    <t>John B. Lacson Foundation Maritime University -  Arevalo</t>
+  </si>
+  <si>
+    <t>Erica Ogoy Martin</t>
+  </si>
+  <si>
+    <t>Block 10 lot 1,Savannah Subd, Abilay Norte Oton.</t>
+  </si>
+  <si>
+    <t>Jaro National High School</t>
+  </si>
+  <si>
+    <t>Yes, because it's  convenient.</t>
+  </si>
+  <si>
+    <t>Jude P. Chichirita</t>
+  </si>
+  <si>
+    <t>Pototan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaizha Zien C. Velasco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brgy. Luna Lapaz Iloilo City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The App is very convenient whenever I'm tired to go out side. </t>
+  </si>
+  <si>
+    <t>Germin May S. Sañor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Joaquin </t>
   </si>
 </sst>
 </file>
@@ -6251,6 +6528,3300 @@
         <v>222</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45405.361234861106</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN45" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45405.36275375</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN46" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45405.366614722225</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN47" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45405.36813991898</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN48" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45405.36983054398</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN49" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45405.37061791666</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN50" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45405.371493252314</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN51" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45405.38166994213</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN52" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45405.38662106481</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN53" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45405.40400525463</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN54" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45405.40859262731</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN55" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45405.42642120371</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN56" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45405.45577847223</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN57" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45405.47851071759</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N58" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN58" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45405.49390769676</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN59" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45405.52119085648</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN60" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45405.54067540509</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N61" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN61" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45405.66893789352</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN62" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45405.80284733797</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN63" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45405.81141491898</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N64" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN64" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45405.82268719908</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN65" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45405.82304989583</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN66" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45405.911607581016</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K67" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN67" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45405.93022787037</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN68" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45406.00075636574</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N69" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN69" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45406.479934918985</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN70" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45406.48372952546</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K71" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN71" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
